--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.4420086865364</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="H2">
-        <v>82.4420086865364</v>
+        <v>256.521248</v>
       </c>
       <c r="I2">
-        <v>0.8149319193133052</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="J2">
-        <v>0.8149319193133052</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.4420086865364</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="N2">
-        <v>82.4420086865364</v>
+        <v>256.521248</v>
       </c>
       <c r="O2">
-        <v>0.8149319193133052</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="P2">
-        <v>0.8149319193133052</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="Q2">
-        <v>6796.684796270943</v>
+        <v>7311.461186164169</v>
       </c>
       <c r="R2">
-        <v>6796.684796270943</v>
+        <v>65803.15067547752</v>
       </c>
       <c r="S2">
-        <v>0.6641140331156674</v>
+        <v>0.6562726967330609</v>
       </c>
       <c r="T2">
-        <v>0.6641140331156674</v>
+        <v>0.6772865282153764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.4420086865364</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="H3">
-        <v>82.4420086865364</v>
+        <v>256.521248</v>
       </c>
       <c r="I3">
-        <v>0.8149319193133052</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="J3">
-        <v>0.8149319193133052</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8400671186212</v>
+        <v>14.793011</v>
       </c>
       <c r="N3">
-        <v>13.8400671186212</v>
+        <v>44.379033</v>
       </c>
       <c r="O3">
-        <v>0.1368078318334918</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="P3">
-        <v>0.1368078318334918</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="Q3">
-        <v>1141.002933615616</v>
+        <v>1264.907214465909</v>
       </c>
       <c r="R3">
-        <v>1141.002933615616</v>
+        <v>11384.16493019318</v>
       </c>
       <c r="S3">
-        <v>0.1114890689731594</v>
+        <v>0.1135373692915898</v>
       </c>
       <c r="T3">
-        <v>0.1114890689731594</v>
+        <v>0.1171728323500345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.4420086865364</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="H4">
-        <v>82.4420086865364</v>
+        <v>256.521248</v>
       </c>
       <c r="I4">
-        <v>0.8149319193133052</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="J4">
-        <v>0.8149319193133052</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.11555340346157</v>
+        <v>0.098439</v>
       </c>
       <c r="N4">
-        <v>0.11555340346157</v>
+        <v>0.295317</v>
       </c>
       <c r="O4">
-        <v>0.001142235110065927</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="P4">
-        <v>0.001142235110065927</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="Q4">
-        <v>9.5264546919376</v>
+        <v>8.417231710624002</v>
       </c>
       <c r="R4">
-        <v>9.5264546919376</v>
+        <v>75.75508539561601</v>
       </c>
       <c r="S4">
-        <v>0.0009308438505530699</v>
+        <v>0.0007555260450826956</v>
       </c>
       <c r="T4">
-        <v>0.0009308438505530699</v>
+        <v>0.0007797179657140148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,123 +708,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.4420086865364</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="H5">
-        <v>82.4420086865364</v>
+        <v>256.521248</v>
       </c>
       <c r="I5">
-        <v>0.8149319193133052</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="J5">
-        <v>0.8149319193133052</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.76666038750486</v>
+        <v>0.200881</v>
       </c>
       <c r="N5">
-        <v>4.76666038750486</v>
+        <v>0.6026429999999999</v>
       </c>
       <c r="O5">
-        <v>0.04711801374313696</v>
+        <v>0.001903175947738904</v>
       </c>
       <c r="P5">
-        <v>0.04711801374313696</v>
+        <v>0.001933405683188583</v>
       </c>
       <c r="Q5">
-        <v>392.9730570724446</v>
+        <v>17.17674827316267</v>
       </c>
       <c r="R5">
-        <v>392.9730570724446</v>
+        <v>154.590734458464</v>
       </c>
       <c r="S5">
-        <v>0.0383979733739253</v>
+        <v>0.001541775388436056</v>
       </c>
       <c r="T5">
-        <v>0.0383979733739253</v>
+        <v>0.001591142988760522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.8400671186212</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="H6">
-        <v>13.8400671186212</v>
+        <v>256.521248</v>
       </c>
       <c r="I6">
-        <v>0.1368078318334918</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="J6">
-        <v>0.1368078318334918</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>82.4420086865364</v>
+        <v>4.9509955</v>
       </c>
       <c r="N6">
-        <v>82.4420086865364</v>
+        <v>9.901991000000001</v>
       </c>
       <c r="O6">
-        <v>0.8149319193133052</v>
+        <v>0.04690645483128595</v>
       </c>
       <c r="P6">
-        <v>0.8149319193133052</v>
+        <v>0.03176767285819665</v>
       </c>
       <c r="Q6">
-        <v>1141.002933615616</v>
+        <v>423.3451815007948</v>
       </c>
       <c r="R6">
-        <v>1141.002933615616</v>
+        <v>2540.071089004769</v>
       </c>
       <c r="S6">
-        <v>0.1114890689731594</v>
+        <v>0.03799922844946844</v>
       </c>
       <c r="T6">
-        <v>0.1114890689731594</v>
+        <v>0.02614397504728303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.8400671186212</v>
+        <v>14.793011</v>
       </c>
       <c r="H7">
-        <v>13.8400671186212</v>
+        <v>44.379033</v>
       </c>
       <c r="I7">
-        <v>0.1368078318334918</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="J7">
-        <v>0.1368078318334918</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8400671186212</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="N7">
-        <v>13.8400671186212</v>
+        <v>256.521248</v>
       </c>
       <c r="O7">
-        <v>0.1368078318334918</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="P7">
-        <v>0.1368078318334918</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="Q7">
-        <v>191.5474578479397</v>
+        <v>1264.907214465909</v>
       </c>
       <c r="R7">
-        <v>191.5474578479397</v>
+        <v>11384.16493019318</v>
       </c>
       <c r="S7">
-        <v>0.01871638285098097</v>
+        <v>0.1135373692915898</v>
       </c>
       <c r="T7">
-        <v>0.01871638285098097</v>
+        <v>0.1171728323500345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.8400671186212</v>
+        <v>14.793011</v>
       </c>
       <c r="H8">
-        <v>13.8400671186212</v>
+        <v>44.379033</v>
       </c>
       <c r="I8">
-        <v>0.1368078318334918</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="J8">
-        <v>0.1368078318334918</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.11555340346157</v>
+        <v>14.793011</v>
       </c>
       <c r="N8">
-        <v>0.11555340346157</v>
+        <v>44.379033</v>
       </c>
       <c r="O8">
-        <v>0.001142235110065927</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="P8">
-        <v>0.001142235110065927</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="Q8">
-        <v>1.599266859693244</v>
+        <v>218.833174446121</v>
       </c>
       <c r="R8">
-        <v>1.599266859693244</v>
+        <v>1969.498570015089</v>
       </c>
       <c r="S8">
-        <v>0.0001562667088522093</v>
+        <v>0.0196423442416928</v>
       </c>
       <c r="T8">
-        <v>0.0001562667088522093</v>
+        <v>0.02027129149771502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,185 +956,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.8400671186212</v>
+        <v>14.793011</v>
       </c>
       <c r="H9">
-        <v>13.8400671186212</v>
+        <v>44.379033</v>
       </c>
       <c r="I9">
-        <v>0.1368078318334918</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="J9">
-        <v>0.1368078318334918</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.76666038750486</v>
+        <v>0.098439</v>
       </c>
       <c r="N9">
-        <v>4.76666038750486</v>
+        <v>0.295317</v>
       </c>
       <c r="O9">
-        <v>0.04711801374313696</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="P9">
-        <v>0.04711801374313696</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="Q9">
-        <v>65.9708996947402</v>
+        <v>1.456209209829</v>
       </c>
       <c r="R9">
-        <v>65.9708996947402</v>
+        <v>13.105882888461</v>
       </c>
       <c r="S9">
-        <v>0.006446113300499236</v>
+        <v>0.0001307085301841524</v>
       </c>
       <c r="T9">
-        <v>0.006446113300499236</v>
+        <v>0.0001348938132840954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.11555340346157</v>
+        <v>14.793011</v>
       </c>
       <c r="H10">
-        <v>0.11555340346157</v>
+        <v>44.379033</v>
       </c>
       <c r="I10">
-        <v>0.001142235110065927</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="J10">
-        <v>0.001142235110065927</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.4420086865364</v>
+        <v>0.200881</v>
       </c>
       <c r="N10">
-        <v>82.4420086865364</v>
+        <v>0.6026429999999999</v>
       </c>
       <c r="O10">
-        <v>0.8149319193133052</v>
+        <v>0.001903175947738904</v>
       </c>
       <c r="P10">
-        <v>0.8149319193133052</v>
+        <v>0.001933405683188583</v>
       </c>
       <c r="Q10">
-        <v>9.5264546919376</v>
+        <v>2.971634842691</v>
       </c>
       <c r="R10">
-        <v>9.5264546919376</v>
+        <v>26.744713584219</v>
       </c>
       <c r="S10">
-        <v>0.0009308438505530699</v>
+        <v>0.000266732293622677</v>
       </c>
       <c r="T10">
-        <v>0.0009308438505530699</v>
+        <v>0.0002752730534272226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.11555340346157</v>
+        <v>14.793011</v>
       </c>
       <c r="H11">
-        <v>0.11555340346157</v>
+        <v>44.379033</v>
       </c>
       <c r="I11">
-        <v>0.001142235110065927</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="J11">
-        <v>0.001142235110065927</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.8400671186212</v>
+        <v>4.9509955</v>
       </c>
       <c r="N11">
-        <v>13.8400671186212</v>
+        <v>9.901991000000001</v>
       </c>
       <c r="O11">
-        <v>0.1368078318334918</v>
+        <v>0.04690645483128595</v>
       </c>
       <c r="P11">
-        <v>0.1368078318334918</v>
+        <v>0.03176767285819665</v>
       </c>
       <c r="Q11">
-        <v>1.599266859693244</v>
+        <v>73.24013089245051</v>
       </c>
       <c r="R11">
-        <v>1.599266859693244</v>
+        <v>439.4407853547031</v>
       </c>
       <c r="S11">
-        <v>0.0001562667088522093</v>
+        <v>0.006573993485847606</v>
       </c>
       <c r="T11">
-        <v>0.0001562667088522093</v>
+        <v>0.004522995036163827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.11555340346157</v>
+        <v>0.098439</v>
       </c>
       <c r="H12">
-        <v>0.11555340346157</v>
+        <v>0.295317</v>
       </c>
       <c r="I12">
-        <v>0.001142235110065927</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="J12">
-        <v>0.001142235110065927</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.11555340346157</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="N12">
-        <v>0.11555340346157</v>
+        <v>256.521248</v>
       </c>
       <c r="O12">
-        <v>0.001142235110065927</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="P12">
-        <v>0.001142235110065927</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="Q12">
-        <v>0.01335258905155238</v>
+        <v>8.417231710624002</v>
       </c>
       <c r="R12">
-        <v>0.01335258905155238</v>
+        <v>75.75508539561601</v>
       </c>
       <c r="S12">
-        <v>1.304701046667319E-06</v>
+        <v>0.0007555260450826956</v>
       </c>
       <c r="T12">
-        <v>1.304701046667319E-06</v>
+        <v>0.0007797179657140148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,247 +1204,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.11555340346157</v>
+        <v>0.098439</v>
       </c>
       <c r="H13">
-        <v>0.11555340346157</v>
+        <v>0.295317</v>
       </c>
       <c r="I13">
-        <v>0.001142235110065927</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="J13">
-        <v>0.001142235110065927</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.76666038750486</v>
+        <v>14.793011</v>
       </c>
       <c r="N13">
-        <v>4.76666038750486</v>
+        <v>44.379033</v>
       </c>
       <c r="O13">
-        <v>0.04711801374313696</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="P13">
-        <v>0.04711801374313696</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="Q13">
-        <v>0.5508038309216328</v>
+        <v>1.456209209829</v>
       </c>
       <c r="R13">
-        <v>0.5508038309216328</v>
+        <v>13.105882888461</v>
       </c>
       <c r="S13">
-        <v>5.381984961397989E-05</v>
+        <v>0.0001307085301841524</v>
       </c>
       <c r="T13">
-        <v>5.381984961397989E-05</v>
+        <v>0.0001348938132840954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.76666038750486</v>
+        <v>0.098439</v>
       </c>
       <c r="H14">
-        <v>4.76666038750486</v>
+        <v>0.295317</v>
       </c>
       <c r="I14">
-        <v>0.04711801374313696</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="J14">
-        <v>0.04711801374313696</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>82.4420086865364</v>
+        <v>0.098439</v>
       </c>
       <c r="N14">
-        <v>82.4420086865364</v>
+        <v>0.295317</v>
       </c>
       <c r="O14">
-        <v>0.8149319193133052</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="P14">
-        <v>0.8149319193133052</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="Q14">
-        <v>392.9730570724446</v>
+        <v>0.009690236720999999</v>
       </c>
       <c r="R14">
-        <v>392.9730570724446</v>
+        <v>0.08721213048899999</v>
       </c>
       <c r="S14">
-        <v>0.0383979733739253</v>
+        <v>8.697902680392634E-07</v>
       </c>
       <c r="T14">
-        <v>0.0383979733739253</v>
+        <v>8.976409255609332E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.76666038750486</v>
+        <v>0.098439</v>
       </c>
       <c r="H15">
-        <v>4.76666038750486</v>
+        <v>0.295317</v>
       </c>
       <c r="I15">
-        <v>0.04711801374313696</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="J15">
-        <v>0.04711801374313696</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.8400671186212</v>
+        <v>0.200881</v>
       </c>
       <c r="N15">
-        <v>13.8400671186212</v>
+        <v>0.6026429999999999</v>
       </c>
       <c r="O15">
-        <v>0.1368078318334918</v>
+        <v>0.001903175947738904</v>
       </c>
       <c r="P15">
-        <v>0.1368078318334918</v>
+        <v>0.001933405683188583</v>
       </c>
       <c r="Q15">
-        <v>65.9708996947402</v>
+        <v>0.019774524759</v>
       </c>
       <c r="R15">
-        <v>65.9708996947402</v>
+        <v>0.177970722831</v>
       </c>
       <c r="S15">
-        <v>0.006446113300499236</v>
+        <v>1.774950363514413E-06</v>
       </c>
       <c r="T15">
-        <v>0.006446113300499236</v>
+        <v>1.831784219339955E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.76666038750486</v>
+        <v>0.098439</v>
       </c>
       <c r="H16">
-        <v>4.76666038750486</v>
+        <v>0.295317</v>
       </c>
       <c r="I16">
-        <v>0.04711801374313696</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="J16">
-        <v>0.04711801374313696</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.11555340346157</v>
+        <v>4.9509955</v>
       </c>
       <c r="N16">
-        <v>0.11555340346157</v>
+        <v>9.901991000000001</v>
       </c>
       <c r="O16">
-        <v>0.001142235110065927</v>
+        <v>0.04690645483128595</v>
       </c>
       <c r="P16">
-        <v>0.001142235110065927</v>
+        <v>0.03176767285819665</v>
       </c>
       <c r="Q16">
-        <v>0.5508038309216328</v>
+        <v>0.4873710460245</v>
       </c>
       <c r="R16">
-        <v>0.5508038309216328</v>
+        <v>2.924226276147</v>
       </c>
       <c r="S16">
-        <v>5.381984961397989E-05</v>
+        <v>4.374615450183553E-05</v>
       </c>
       <c r="T16">
-        <v>5.381984961397989E-05</v>
+        <v>3.009793667867421E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.200881</v>
+      </c>
+      <c r="H17">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="J17">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>85.50708266666668</v>
+      </c>
+      <c r="N17">
+        <v>256.521248</v>
+      </c>
+      <c r="O17">
+        <v>0.8101065959076379</v>
+      </c>
+      <c r="P17">
+        <v>0.8229741965671684</v>
+      </c>
+      <c r="Q17">
+        <v>17.17674827316267</v>
+      </c>
+      <c r="R17">
+        <v>154.590734458464</v>
+      </c>
+      <c r="S17">
+        <v>0.001541775388436056</v>
+      </c>
+      <c r="T17">
+        <v>0.001591142988760522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.200881</v>
+      </c>
+      <c r="H18">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="J18">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.793011</v>
+      </c>
+      <c r="N18">
+        <v>44.379033</v>
+      </c>
+      <c r="O18">
+        <v>0.1401511478429371</v>
+      </c>
+      <c r="P18">
+        <v>0.1423772857506246</v>
+      </c>
+      <c r="Q18">
+        <v>2.971634842691</v>
+      </c>
+      <c r="R18">
+        <v>26.744713584219</v>
+      </c>
+      <c r="S18">
+        <v>0.000266732293622677</v>
+      </c>
+      <c r="T18">
+        <v>0.0002752730534272226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.200881</v>
+      </c>
+      <c r="H19">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="J19">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.098439</v>
+      </c>
+      <c r="N19">
+        <v>0.295317</v>
+      </c>
+      <c r="O19">
+        <v>0.0009326254704002371</v>
+      </c>
+      <c r="P19">
+        <v>0.0009474391408216853</v>
+      </c>
+      <c r="Q19">
+        <v>0.019774524759</v>
+      </c>
+      <c r="R19">
+        <v>0.177970722831</v>
+      </c>
+      <c r="S19">
+        <v>1.774950363514413E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.831784219339955E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.200881</v>
+      </c>
+      <c r="H20">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="J20">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.200881</v>
+      </c>
+      <c r="N20">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="P20">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="Q20">
+        <v>0.04035317616099999</v>
+      </c>
+      <c r="R20">
+        <v>0.3631785854489999</v>
+      </c>
+      <c r="S20">
+        <v>3.622078688051877E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.738057535785912E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.200881</v>
+      </c>
+      <c r="H21">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="J21">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.9509955</v>
+      </c>
+      <c r="N21">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="P21">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="Q21">
+        <v>0.9945609270354999</v>
+      </c>
+      <c r="R21">
+        <v>5.967365562213</v>
+      </c>
+      <c r="S21">
+        <v>8.927123662860474E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.14197992457131E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.9509955</v>
+      </c>
+      <c r="H22">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="J22">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>85.50708266666668</v>
+      </c>
+      <c r="N22">
+        <v>256.521248</v>
+      </c>
+      <c r="O22">
+        <v>0.8101065959076379</v>
+      </c>
+      <c r="P22">
+        <v>0.8229741965671684</v>
+      </c>
+      <c r="Q22">
+        <v>423.3451815007948</v>
+      </c>
+      <c r="R22">
+        <v>2540.071089004769</v>
+      </c>
+      <c r="S22">
+        <v>0.03799922844946844</v>
+      </c>
+      <c r="T22">
+        <v>0.02614397504728303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.9509955</v>
+      </c>
+      <c r="H23">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="J23">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.793011</v>
+      </c>
+      <c r="N23">
+        <v>44.379033</v>
+      </c>
+      <c r="O23">
+        <v>0.1401511478429371</v>
+      </c>
+      <c r="P23">
+        <v>0.1423772857506246</v>
+      </c>
+      <c r="Q23">
+        <v>73.24013089245051</v>
+      </c>
+      <c r="R23">
+        <v>439.4407853547031</v>
+      </c>
+      <c r="S23">
+        <v>0.006573993485847606</v>
+      </c>
+      <c r="T23">
+        <v>0.004522995036163827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.9509955</v>
+      </c>
+      <c r="H24">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="J24">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.098439</v>
+      </c>
+      <c r="N24">
+        <v>0.295317</v>
+      </c>
+      <c r="O24">
+        <v>0.0009326254704002371</v>
+      </c>
+      <c r="P24">
+        <v>0.0009474391408216853</v>
+      </c>
+      <c r="Q24">
+        <v>0.4873710460245</v>
+      </c>
+      <c r="R24">
+        <v>2.924226276147</v>
+      </c>
+      <c r="S24">
+        <v>4.374615450183553E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.009793667867421E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>4.76666038750486</v>
-      </c>
-      <c r="H17">
-        <v>4.76666038750486</v>
-      </c>
-      <c r="I17">
-        <v>0.04711801374313696</v>
-      </c>
-      <c r="J17">
-        <v>0.04711801374313696</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.76666038750486</v>
-      </c>
-      <c r="N17">
-        <v>4.76666038750486</v>
-      </c>
-      <c r="O17">
-        <v>0.04711801374313696</v>
-      </c>
-      <c r="P17">
-        <v>0.04711801374313696</v>
-      </c>
-      <c r="Q17">
-        <v>22.72105124980798</v>
-      </c>
-      <c r="R17">
-        <v>22.72105124980798</v>
-      </c>
-      <c r="S17">
-        <v>0.002220107219098444</v>
-      </c>
-      <c r="T17">
-        <v>0.002220107219098444</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.9509955</v>
+      </c>
+      <c r="H25">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="J25">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.200881</v>
+      </c>
+      <c r="N25">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="P25">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="Q25">
+        <v>0.9945609270354999</v>
+      </c>
+      <c r="R25">
+        <v>5.967365562213</v>
+      </c>
+      <c r="S25">
+        <v>8.927123662860474E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.14197992457131E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.9509955</v>
+      </c>
+      <c r="H26">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="J26">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.9509955</v>
+      </c>
+      <c r="N26">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="P26">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="Q26">
+        <v>24.51235644102025</v>
+      </c>
+      <c r="R26">
+        <v>98.04942576408101</v>
+      </c>
+      <c r="S26">
+        <v>0.002200215504839469</v>
+      </c>
+      <c r="T26">
+        <v>0.001009185038825404</v>
       </c>
     </row>
   </sheetData>
